--- a/Datasheet.xlsx
+++ b/Datasheet.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F98FEB-641F-4E3F-A2AD-F45AC6EABED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E0A0C-BDE3-43FB-928B-C8CE59EB516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="1380" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
+    <sheet name="Date Generation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -139,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -148,6 +149,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -582,4 +584,182 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAAEBFD-7FF7-4D82-908B-BD6E3B35AF00}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>37329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>37330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>37331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>37332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>37333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>37334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>37335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>37336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>37337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>37338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>37339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>37340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>37341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>37342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>37343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>37344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>37345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>37346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>37347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>37348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>37349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>37350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>37351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>37352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>37353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>37354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>37355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>37356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>37357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>37358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>37359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>37360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>